--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -28,10 +28,10 @@
     <t>speaktoharisudhan@gmail.com</t>
   </si>
   <si>
-    <t>Sam Peter</t>
-  </si>
-  <si>
-    <t>koushik2782011@gmail.com</t>
+    <t>Dhanushkumar</t>
+  </si>
+  <si>
+    <t>dhanushidk507@gmail.com</t>
   </si>
 </sst>
 </file>
